--- a/public/property.xlsx
+++ b/public/property.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meowulf\Documents\Git Sync\kkn_ppm\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28201A40-C342-4157-8EA9-1E63A86501E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779C3B69-B0ED-43F3-982E-4AA91848E44E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,10 +574,10 @@
         <v>119.63574886322</v>
       </c>
       <c r="G1" s="1">
-        <v>17255437.416666668</v>
+        <v>23664147.666666668</v>
       </c>
       <c r="H1" s="4">
-        <v>18303088.974107143</v>
+        <v>24509295.797619049</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>22</v>
@@ -603,10 +603,10 @@
         <v>119.63892459869</v>
       </c>
       <c r="G2" s="1">
-        <v>10323361.083333334</v>
+        <v>14230673.166666666</v>
       </c>
       <c r="H2" s="4">
-        <v>11890299.819196427</v>
+        <v>15501268.985119047</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>22</v>
@@ -632,10 +632,10 @@
         <v>119.64501857757</v>
       </c>
       <c r="G3" s="1">
-        <v>15164575.166666666</v>
+        <v>19025185</v>
       </c>
       <c r="H3" s="4">
-        <v>15670963.658839285</v>
+        <v>19398893.991071429</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>22</v>
@@ -661,10 +661,10 @@
         <v>119.62802410125001</v>
       </c>
       <c r="G4" s="1">
-        <v>17865176.833333332</v>
+        <v>19568786.5</v>
       </c>
       <c r="H4" s="4">
-        <v>18407512.558630954</v>
+        <v>19918229.116071429</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>22</v>
@@ -690,10 +690,10 @@
         <v>119.6757030487</v>
       </c>
       <c r="G5" s="4">
-        <v>7609591.916666667</v>
+        <v>10885609.166666666</v>
       </c>
       <c r="H5" s="4">
-        <v>7655793.0104464283</v>
+        <v>10924486.342261905</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>22</v>
@@ -719,10 +719,10 @@
         <v>119.62879657745</v>
       </c>
       <c r="G6" s="1">
-        <v>10953233.583333334</v>
+        <v>11898347.833333334</v>
       </c>
       <c r="H6" s="4">
-        <v>10986484.470997024</v>
+        <v>11919594.883035714</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>22</v>
@@ -748,10 +748,10 @@
         <v>119.62476253509</v>
       </c>
       <c r="G7" s="1">
-        <v>19311518.833333332</v>
+        <v>20380192.75</v>
       </c>
       <c r="H7" s="4">
-        <v>19546015.847738095</v>
+        <v>20525765.555357143</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>22</v>
@@ -777,10 +777,10 @@
         <v>119.62527751922001</v>
       </c>
       <c r="G8" s="1">
-        <v>17726573.083333332</v>
+        <v>22206774.75</v>
       </c>
       <c r="H8" s="4">
-        <v>18365804.052095961</v>
+        <v>22677827.547727272</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>22</v>
@@ -806,10 +806,10 @@
         <v>119.62810993194</v>
       </c>
       <c r="G9" s="1">
-        <v>12196398</v>
+        <v>13330339.083333334</v>
       </c>
       <c r="H9" s="4">
-        <v>12270447.559285715</v>
+        <v>13377947.437202381</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>22</v>
@@ -835,10 +835,10 @@
         <v>119.65596199034999</v>
       </c>
       <c r="G10" s="1">
-        <v>37987868.5</v>
+        <v>48978557.833333336</v>
       </c>
       <c r="H10" s="4">
-        <v>39455581.601136364</v>
+        <v>50091706.875</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>22</v>
@@ -864,10 +864,10 @@
         <v>119.68085289001</v>
       </c>
       <c r="G11" s="1">
-        <v>5155206.666666667</v>
+        <v>6183483.583333333</v>
       </c>
       <c r="H11" s="4">
-        <v>5343003.4809523812</v>
+        <v>6315986.802976191</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>22</v>
@@ -893,10 +893,10 @@
         <v>119.65218544005999</v>
       </c>
       <c r="G12" s="1">
-        <v>8779309</v>
+        <v>15555321.583333334</v>
       </c>
       <c r="H12" s="4">
-        <v>8921450.1933333334</v>
+        <v>15703467.503174603</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>22</v>
@@ -922,10 +922,10 @@
         <v>119.6291399002</v>
       </c>
       <c r="G13" s="1">
-        <v>19743415.583333299</v>
+        <v>23137323.916666668</v>
       </c>
       <c r="H13" s="4">
-        <v>20282833.901949398</v>
+        <v>23509173.765327379</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
@@ -951,10 +951,10 @@
         <v>119.62253093719001</v>
       </c>
       <c r="G14" s="1">
-        <v>31581219.5</v>
+        <v>33623489.916666664</v>
       </c>
       <c r="H14" s="4">
-        <v>31255837.238484848</v>
+        <v>33419711.189898986</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>119.62684392929</v>
       </c>
       <c r="G15" s="1">
-        <v>7001368.5</v>
+        <v>7311452.166666667</v>
       </c>
       <c r="H15" s="4">
-        <v>7235164.1981250001</v>
+        <v>7455069.9770833328</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -1009,10 +1009,10 @@
         <v>119.62888240814</v>
       </c>
       <c r="G16" s="1">
-        <v>8589596.916666666</v>
+        <v>9769430.75</v>
       </c>
       <c r="H16" s="4">
-        <v>9058957.0338988099</v>
+        <v>10083448.166964287</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>22</v>
@@ -1038,10 +1038,10 @@
         <v>119.63343143463</v>
       </c>
       <c r="G17" s="1">
-        <v>16241037.166666666</v>
+        <v>19726218.666666668</v>
       </c>
       <c r="H17" s="4">
-        <v>16241037.166666666</v>
+        <v>19726218.666666668</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -1067,10 +1067,10 @@
         <v>119.62785243988</v>
       </c>
       <c r="G18" s="1">
-        <v>10133672.75</v>
+        <v>11883937</v>
       </c>
       <c r="H18" s="4">
-        <v>10472997.246628787</v>
+        <v>12118014.546969697</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>22</v>
@@ -1096,10 +1096,10 @@
         <v>119.63262677192</v>
       </c>
       <c r="G19" s="1">
-        <v>10509806.5</v>
+        <v>11647514.333333334</v>
       </c>
       <c r="H19" s="4">
-        <v>10541711.269732142</v>
+        <v>11668313.466071429</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -1125,10 +1125,10 @@
         <v>119.62270259857</v>
       </c>
       <c r="G20" s="1">
-        <v>29489707.916666668</v>
+        <v>31911226.083333332</v>
       </c>
       <c r="H20" s="4">
-        <v>29641624.593813132</v>
+        <v>32007926.768434346</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>22</v>
@@ -1154,10 +1154,10 @@
         <v>119.67278480528999</v>
       </c>
       <c r="G21" s="1">
-        <v>3942225.9166666665</v>
+        <v>4983919.25</v>
       </c>
       <c r="H21" s="4">
-        <v>3942225.9166666665</v>
+        <v>4983919.25</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -1183,10 +1183,10 @@
         <v>119.63471889495</v>
       </c>
       <c r="G22" s="1">
-        <v>26291657.25</v>
+        <v>30138114.083333332</v>
       </c>
       <c r="H22" s="4">
-        <v>27808122.480669644</v>
+        <v>31160657.239732143</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>22</v>
